--- a/data/match_8.xlsx
+++ b/data/match_8.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anton.shevchuk\dev\euroleague\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44FF1250-514B-414C-92CE-938F7BE4929C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B413F38-FFB0-45ED-97F4-B4ECF13C4E76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-60" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="57">
   <si>
     <t>№</t>
   </si>
@@ -123,9 +123,6 @@
     <t>1:2</t>
   </si>
   <si>
-    <t>Оксанич Кирилл</t>
-  </si>
-  <si>
     <t>3:1</t>
   </si>
   <si>
@@ -190,9 +187,6 @@
   </si>
   <si>
     <t>4:0</t>
-  </si>
-  <si>
-    <t>Фёдоров Михаил</t>
   </si>
   <si>
     <t>Махмудов Руслан</t>
@@ -570,10 +564,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA20"/>
+  <dimension ref="A1:AA18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+      <selection activeCell="A15" activeCellId="1" sqref="A19:XFD19 A15:XFD15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -666,25 +660,25 @@
         <v>8.5</v>
       </c>
       <c r="B2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C2">
         <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E2">
         <v>2</v>
       </c>
       <c r="F2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -702,37 +696,37 @@
         <v>0</v>
       </c>
       <c r="N2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O2">
+        <v>2</v>
+      </c>
+      <c r="P2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q2">
+        <v>3</v>
+      </c>
+      <c r="R2" t="s">
         <v>32</v>
-      </c>
-      <c r="O2">
-        <v>2</v>
-      </c>
-      <c r="P2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q2">
-        <v>3</v>
-      </c>
-      <c r="R2" t="s">
-        <v>33</v>
       </c>
       <c r="S2">
         <v>5</v>
       </c>
       <c r="T2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="U2">
         <v>0</v>
       </c>
       <c r="V2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="W2">
         <v>2</v>
       </c>
       <c r="X2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Y2">
         <v>0</v>
@@ -749,13 +743,13 @@
         <v>8.5</v>
       </c>
       <c r="B3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C3">
         <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -832,7 +826,7 @@
         <v>8.5</v>
       </c>
       <c r="B4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C4">
         <v>14</v>
@@ -844,7 +838,7 @@
         <v>2</v>
       </c>
       <c r="F4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -868,7 +862,7 @@
         <v>2</v>
       </c>
       <c r="N4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O4">
         <v>5</v>
@@ -892,7 +886,7 @@
         <v>2</v>
       </c>
       <c r="V4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="W4">
         <v>0</v>
@@ -904,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="Z4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AA4">
         <v>0</v>
@@ -915,7 +909,7 @@
         <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C5">
         <v>11</v>
@@ -927,37 +921,37 @@
         <v>2</v>
       </c>
       <c r="F5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5" t="s">
+        <v>30</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5" t="s">
+        <v>26</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5" t="s">
         <v>32</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5" t="s">
-        <v>26</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5" t="s">
-        <v>31</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5" t="s">
-        <v>26</v>
-      </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
-      <c r="N5" t="s">
-        <v>33</v>
       </c>
       <c r="O5">
         <v>5</v>
       </c>
       <c r="P5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Q5">
         <v>2</v>
@@ -969,7 +963,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="U5">
         <v>2</v>
@@ -981,7 +975,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Y5">
         <v>0</v>
@@ -998,7 +992,7 @@
         <v>5.5</v>
       </c>
       <c r="B6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C6">
         <v>15</v>
@@ -1010,7 +1004,7 @@
         <v>2</v>
       </c>
       <c r="F6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -1040,7 +1034,7 @@
         <v>3</v>
       </c>
       <c r="P6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Q6">
         <v>2</v>
@@ -1081,19 +1075,19 @@
         <v>8.5</v>
       </c>
       <c r="B7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C7">
         <v>14</v>
       </c>
       <c r="D7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E7">
         <v>2</v>
       </c>
       <c r="F7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -1117,19 +1111,19 @@
         <v>2</v>
       </c>
       <c r="N7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Q7">
         <v>0</v>
       </c>
       <c r="R7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S7">
         <v>5</v>
@@ -1147,7 +1141,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Y7">
         <v>0</v>
@@ -1164,7 +1158,7 @@
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C8">
         <v>17</v>
@@ -1176,7 +1170,7 @@
         <v>2</v>
       </c>
       <c r="F8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1188,19 +1182,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="s">
+        <v>31</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8" t="s">
         <v>32</v>
       </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
-      <c r="L8" t="s">
-        <v>33</v>
-      </c>
       <c r="M8">
         <v>2</v>
       </c>
       <c r="N8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O8">
         <v>5</v>
@@ -1224,13 +1218,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="W8">
         <v>6</v>
       </c>
       <c r="X8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Y8">
         <v>2</v>
@@ -1247,13 +1241,13 @@
         <v>13.5</v>
       </c>
       <c r="B9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C9">
         <v>12</v>
       </c>
       <c r="D9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E9">
         <v>2</v>
@@ -1265,7 +1259,7 @@
         <v>5</v>
       </c>
       <c r="H9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -1289,7 +1283,7 @@
         <v>0</v>
       </c>
       <c r="P9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Q9">
         <v>2</v>
@@ -1301,7 +1295,7 @@
         <v>0</v>
       </c>
       <c r="T9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="U9">
         <v>0</v>
@@ -1330,13 +1324,13 @@
         <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C10">
         <v>7</v>
       </c>
       <c r="D10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E10">
         <v>2</v>
@@ -1348,7 +1342,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -1360,49 +1354,49 @@
         <v>0</v>
       </c>
       <c r="L10" t="s">
+        <v>33</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10" t="s">
+        <v>26</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q10">
+        <v>3</v>
+      </c>
+      <c r="R10" t="s">
+        <v>29</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10" t="s">
+        <v>29</v>
+      </c>
+      <c r="U10">
+        <v>2</v>
+      </c>
+      <c r="V10" t="s">
+        <v>29</v>
+      </c>
+      <c r="W10">
+        <v>0</v>
+      </c>
+      <c r="X10" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y10">
+        <v>0</v>
+      </c>
+      <c r="Z10" t="s">
         <v>34</v>
-      </c>
-      <c r="M10">
-        <v>0</v>
-      </c>
-      <c r="N10" t="s">
-        <v>26</v>
-      </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-      <c r="P10" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q10">
-        <v>3</v>
-      </c>
-      <c r="R10" t="s">
-        <v>29</v>
-      </c>
-      <c r="S10">
-        <v>0</v>
-      </c>
-      <c r="T10" t="s">
-        <v>29</v>
-      </c>
-      <c r="U10">
-        <v>2</v>
-      </c>
-      <c r="V10" t="s">
-        <v>29</v>
-      </c>
-      <c r="W10">
-        <v>0</v>
-      </c>
-      <c r="X10" t="s">
-        <v>34</v>
-      </c>
-      <c r="Y10">
-        <v>0</v>
-      </c>
-      <c r="Z10" t="s">
-        <v>35</v>
       </c>
       <c r="AA10">
         <v>0</v>
@@ -1413,20 +1407,20 @@
         <v>5.5</v>
       </c>
       <c r="B11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C11">
         <v>15</v>
       </c>
       <c r="D11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11" t="s">
         <v>31</v>
       </c>
-      <c r="E11">
-        <v>2</v>
-      </c>
-      <c r="F11" t="s">
-        <v>32</v>
-      </c>
       <c r="G11">
         <v>0</v>
       </c>
@@ -1437,7 +1431,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -1455,13 +1449,13 @@
         <v>0</v>
       </c>
       <c r="P11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Q11">
         <v>2</v>
       </c>
       <c r="R11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S11">
         <v>5</v>
@@ -1485,7 +1479,7 @@
         <v>2</v>
       </c>
       <c r="Z11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AA11">
         <v>2</v>
@@ -1496,7 +1490,7 @@
         <v>13.5</v>
       </c>
       <c r="B12" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C12">
         <v>12</v>
@@ -1514,25 +1508,25 @@
         <v>0</v>
       </c>
       <c r="H12" t="s">
+        <v>33</v>
+      </c>
+      <c r="I12">
+        <v>2</v>
+      </c>
+      <c r="J12" t="s">
+        <v>51</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12" t="s">
         <v>34</v>
       </c>
-      <c r="I12">
-        <v>2</v>
-      </c>
-      <c r="J12" t="s">
-        <v>52</v>
-      </c>
-      <c r="K12">
-        <v>0</v>
-      </c>
-      <c r="L12" t="s">
-        <v>35</v>
-      </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O12">
         <v>5</v>
@@ -1550,13 +1544,13 @@
         <v>0</v>
       </c>
       <c r="T12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="U12">
         <v>0</v>
       </c>
       <c r="V12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="W12">
         <v>0</v>
@@ -1568,7 +1562,7 @@
         <v>0</v>
       </c>
       <c r="Z12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AA12">
         <v>2</v>
@@ -1579,7 +1573,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C13">
         <v>13</v>
@@ -1597,7 +1591,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1609,7 +1603,7 @@
         <v>0</v>
       </c>
       <c r="N13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O13">
         <v>5</v>
@@ -1650,13 +1644,13 @@
         <v>3</v>
       </c>
       <c r="B14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C14">
         <v>18</v>
       </c>
       <c r="D14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E14">
         <v>2</v>
@@ -1668,7 +1662,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1698,7 +1692,7 @@
         <v>3</v>
       </c>
       <c r="R14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S14">
         <v>5</v>
@@ -1730,13 +1724,13 @@
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>2</v>
+        <v>17.5</v>
       </c>
       <c r="B15" t="s">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="C15">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="D15" t="s">
         <v>31</v>
@@ -1745,7 +1739,7 @@
         <v>2</v>
       </c>
       <c r="F15" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1757,40 +1751,40 @@
         <v>0</v>
       </c>
       <c r="J15" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="M15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N15" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="O15">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P15" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="Q15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="S15">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T15" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="U15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V15" t="s">
         <v>25</v>
@@ -1799,13 +1793,13 @@
         <v>3</v>
       </c>
       <c r="X15" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="Y15">
         <v>0</v>
       </c>
       <c r="Z15" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="AA15">
         <v>0</v>
@@ -1813,22 +1807,22 @@
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>17.5</v>
+        <v>1</v>
       </c>
       <c r="B16" t="s">
-        <v>56</v>
+        <v>24</v>
       </c>
       <c r="C16">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="D16" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="E16">
         <v>2</v>
       </c>
       <c r="F16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1840,16 +1834,16 @@
         <v>0</v>
       </c>
       <c r="J16" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N16" t="s">
         <v>25</v>
@@ -1858,10 +1852,10 @@
         <v>3</v>
       </c>
       <c r="P16" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="Q16">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="R16" t="s">
         <v>26</v>
@@ -1870,16 +1864,16 @@
         <v>0</v>
       </c>
       <c r="T16" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="U16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="W16">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="X16" t="s">
         <v>26</v>
@@ -1888,30 +1882,30 @@
         <v>0</v>
       </c>
       <c r="Z16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AA16">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>1</v>
+        <v>13.5</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="C17">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D17" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="E17">
         <v>2</v>
       </c>
       <c r="F17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1929,22 +1923,22 @@
         <v>0</v>
       </c>
       <c r="L17" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="M17">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N17" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="O17">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P17" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="Q17">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="R17" t="s">
         <v>26</v>
@@ -1959,10 +1953,10 @@
         <v>2</v>
       </c>
       <c r="V17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="W17">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X17" t="s">
         <v>26</v>
@@ -1979,22 +1973,22 @@
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>13.5</v>
+        <v>17.5</v>
       </c>
       <c r="B18" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C18">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D18" t="s">
-        <v>52</v>
+        <v>27</v>
       </c>
       <c r="E18">
         <v>2</v>
       </c>
       <c r="F18" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -2006,28 +2000,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N18" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="Q18">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R18" t="s">
         <v>26</v>
@@ -2036,199 +2030,33 @@
         <v>0</v>
       </c>
       <c r="T18" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="U18">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V18" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="W18">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="X18" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Y18">
         <v>0</v>
       </c>
       <c r="Z18" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="AA18">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
-        <v>13.5</v>
-      </c>
-      <c r="B19" t="s">
-        <v>53</v>
-      </c>
-      <c r="C19">
-        <v>12</v>
-      </c>
-      <c r="D19" t="s">
-        <v>25</v>
-      </c>
-      <c r="E19">
-        <v>2</v>
-      </c>
-      <c r="F19" t="s">
-        <v>25</v>
-      </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
-      <c r="H19" t="s">
-        <v>26</v>
-      </c>
-      <c r="I19">
-        <v>0</v>
-      </c>
-      <c r="J19" t="s">
-        <v>25</v>
-      </c>
-      <c r="K19">
-        <v>0</v>
-      </c>
-      <c r="L19" t="s">
-        <v>26</v>
-      </c>
-      <c r="M19">
-        <v>0</v>
-      </c>
-      <c r="N19" t="s">
-        <v>33</v>
-      </c>
-      <c r="O19">
-        <v>5</v>
-      </c>
-      <c r="P19" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q19">
-        <v>3</v>
-      </c>
-      <c r="R19" t="s">
-        <v>26</v>
-      </c>
-      <c r="S19">
-        <v>0</v>
-      </c>
-      <c r="T19" t="s">
-        <v>29</v>
-      </c>
-      <c r="U19">
-        <v>2</v>
-      </c>
-      <c r="V19" t="s">
-        <v>26</v>
-      </c>
-      <c r="W19">
-        <v>0</v>
-      </c>
-      <c r="X19" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y19">
-        <v>0</v>
-      </c>
-      <c r="Z19" t="s">
-        <v>26</v>
-      </c>
-      <c r="AA19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
-        <v>17.5</v>
-      </c>
-      <c r="B20" t="s">
-        <v>57</v>
-      </c>
-      <c r="C20">
-        <v>8</v>
-      </c>
-      <c r="D20" t="s">
-        <v>27</v>
-      </c>
-      <c r="E20">
-        <v>2</v>
-      </c>
-      <c r="F20" t="s">
-        <v>32</v>
-      </c>
-      <c r="G20">
-        <v>0</v>
-      </c>
-      <c r="H20" t="s">
-        <v>25</v>
-      </c>
-      <c r="I20">
-        <v>0</v>
-      </c>
-      <c r="J20" t="s">
-        <v>42</v>
-      </c>
-      <c r="K20">
-        <v>0</v>
-      </c>
-      <c r="L20" t="s">
-        <v>32</v>
-      </c>
-      <c r="M20">
-        <v>3</v>
-      </c>
-      <c r="N20" t="s">
-        <v>26</v>
-      </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
-      <c r="P20" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q20">
-        <v>3</v>
-      </c>
-      <c r="R20" t="s">
-        <v>26</v>
-      </c>
-      <c r="S20">
-        <v>0</v>
-      </c>
-      <c r="T20" t="s">
-        <v>26</v>
-      </c>
-      <c r="U20">
-        <v>0</v>
-      </c>
-      <c r="V20" t="s">
-        <v>34</v>
-      </c>
-      <c r="W20">
-        <v>0</v>
-      </c>
-      <c r="X20" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y20">
-        <v>0</v>
-      </c>
-      <c r="Z20" t="s">
-        <v>29</v>
-      </c>
-      <c r="AA20">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AA20">
-    <sortCondition ref="B1:B20"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AA18">
+    <sortCondition ref="B1:B18"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/match_8.xlsx
+++ b/data/match_8.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anton.shevchuk\dev\euroleague\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B413F38-FFB0-45ED-97F4-B4ECF13C4E76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1BEF421-07F9-47C4-8F70-67D60E823826}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-60" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" iterate="1" iterateDelta="1.0000000000000001E-5"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="57">
   <si>
     <t>№</t>
   </si>
@@ -567,7 +567,7 @@
   <dimension ref="A1:AA18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" activeCellId="1" sqref="A19:XFD19 A15:XFD15"/>
+      <selection activeCell="Y18" sqref="Y18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1632,8 +1632,14 @@
       <c r="W13">
         <v>3</v>
       </c>
+      <c r="X13" t="s">
+        <v>26</v>
+      </c>
       <c r="Y13">
         <v>0</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>29</v>
       </c>
       <c r="AA13">
         <v>0</v>
